--- a/Data/Delphi round 1/response sheets/Saul H - give your expert opinion on woodland condition.xlsx
+++ b/Data/Delphi round 1/response sheets/Saul H - give your expert opinion on woodland condition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Delphi round 1/response sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{1D076D5D-5916-4B9A-A626-703EEEAA282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2E2A2BB-1B88-48D1-89D9-79C93146DF01}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="8_{1D076D5D-5916-4B9A-A626-703EEEAA282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347A556A-B99A-40E7-9FAE-81E9012E8A37}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="16440" windowHeight="28320" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age dstribution" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="198">
   <si>
     <r>
       <t xml:space="preserve">1: </t>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>Horizontal complexity (structural mosaics across a wood)</t>
+  </si>
+  <si>
+    <t>Number of canopy layers</t>
   </si>
 </sst>
 </file>
@@ -4761,22 +4764,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4788,21 +4785,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4830,8 +4821,8 @@
         <c:axId val="2030676528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4856,7 +4847,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number of age classes</c:v>
+                  <c:v>Number of canopy layers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5251,7 +5242,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -18723,7 +18714,7 @@
     <sortCondition ref="A9:A17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{645C5C7F-4195-455D-B30B-1C0EDE27E05E}" name="Number of age classes" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{645C5C7F-4195-455D-B30B-1C0EDE27E05E}" name="Number of canopy layers" dataDxfId="45"/>
     <tableColumn id="2" xr3:uid="{AC8FEEF9-AD35-49FF-8F7C-506AD938D0D9}" name="Relative value to woodland condition" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19113,7 +19104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3DB337-A7D0-43E1-BE49-4405527D2595}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -23038,7 +23029,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23107,7 +23098,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>6</v>
@@ -23116,10 +23107,10 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>7</v>
@@ -23141,10 +23132,10 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -23164,10 +23155,10 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -23178,19 +23169,15 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>100</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="I14" s="26" t="s">
         <v>9</v>
       </c>
@@ -23204,12 +23191,8 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <v>100</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
         <v>46</v>
       </c>
@@ -23570,8 +23553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E3BDB2-4936-4583-A0D1-731A826C7FE6}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26639,6 +26622,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Saul Herbert</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dr. Ewan McHenry</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43bc291949bcf5a898aed47fdf38e56c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a89575b99fa510669e25d545522f68e" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -26829,30 +26836,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Saul Herbert</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dr. Ewan McHenry</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26863,6 +26846,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26881,16 +26874,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
   <ds:schemaRefs>

--- a/Data/Delphi round 1/response sheets/Saul H - give your expert opinion on woodland condition.xlsx
+++ b/Data/Delphi round 1/response sheets/Saul H - give your expert opinion on woodland condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="8_{1D076D5D-5916-4B9A-A626-703EEEAA282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347A556A-B99A-40E7-9FAE-81E9012E8A37}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="8_{1D076D5D-5916-4B9A-A626-703EEEAA282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAED14B3-FF42-47E1-8340-2EFAFA513932}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="7" activeTab="13" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age dstribution" sheetId="7" r:id="rId1"/>
@@ -3584,6 +3584,12 @@
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3609,6 +3615,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6423,30 +6435,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -6462,30 +6465,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -21743,8 +21737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A60C532-5154-4BAB-8C83-06A0BC57A749}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21953,8 +21947,12 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="2">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="14"/>
@@ -21966,8 +21964,12 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="14"/>
@@ -23553,7 +23555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E3BDB2-4936-4583-A0D1-731A826C7FE6}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -25060,7 +25062,7 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25168,10 +25170,10 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -25191,10 +25193,10 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -25205,18 +25207,18 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>9</v>
@@ -25232,10 +25234,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>94</v>
@@ -25251,10 +25253,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
@@ -25269,12 +25271,8 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13" t="s">
         <v>96</v>
@@ -25288,12 +25286,8 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2">
-        <v>100</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13" t="s">
         <v>97</v>
@@ -25307,12 +25301,8 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <v>100</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
         <v>98</v>
       </c>
